--- a/Macrodata/Mediazona.xlsx
+++ b/Macrodata/Mediazona.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/thesis/Macrodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1FA922-97EC-0545-A3AD-7C6AD2584C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2F44FE-C079-6D47-8756-B77B3734F170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="500" windowWidth="23280" windowHeight="16560" xr2:uid="{C89EF305-CCAD-AA45-8508-4BA21FD27A68}"/>
+    <workbookView xWindow="5520" yWindow="500" windowWidth="23280" windowHeight="16560" activeTab="1" xr2:uid="{C89EF305-CCAD-AA45-8508-4BA21FD27A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="1" r:id="rId1"/>
-    <sheet name="Region-by-year" sheetId="2" r:id="rId2"/>
+    <sheet name="Quarterly" sheetId="3" r:id="rId2"/>
+    <sheet name="Region-by-year" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>All</t>
   </si>
@@ -286,13 +287,199 @@
   </si>
   <si>
     <t>Kursk Oblast</t>
+  </si>
+  <si>
+    <t>2010 Q1</t>
+  </si>
+  <si>
+    <t>2011 Q1</t>
+  </si>
+  <si>
+    <t>2012 Q1</t>
+  </si>
+  <si>
+    <t>2013 Q1</t>
+  </si>
+  <si>
+    <t>2014 Q1</t>
+  </si>
+  <si>
+    <t>2015 Q1</t>
+  </si>
+  <si>
+    <t>2016 Q1</t>
+  </si>
+  <si>
+    <t>2017 Q1</t>
+  </si>
+  <si>
+    <t>2018 Q1</t>
+  </si>
+  <si>
+    <t>2019 Q1</t>
+  </si>
+  <si>
+    <t>2020 Q1</t>
+  </si>
+  <si>
+    <t>2021 Q1</t>
+  </si>
+  <si>
+    <t>2022 Q1</t>
+  </si>
+  <si>
+    <t>2023 Q1</t>
+  </si>
+  <si>
+    <t>2024 Q1</t>
+  </si>
+  <si>
+    <t>2010 Q2</t>
+  </si>
+  <si>
+    <t>2011 Q2</t>
+  </si>
+  <si>
+    <t>2012 Q2</t>
+  </si>
+  <si>
+    <t>2013 Q2</t>
+  </si>
+  <si>
+    <t>2014 Q2</t>
+  </si>
+  <si>
+    <t>2015 Q2</t>
+  </si>
+  <si>
+    <t>2016 Q2</t>
+  </si>
+  <si>
+    <t>2017 Q2</t>
+  </si>
+  <si>
+    <t>2018 Q2</t>
+  </si>
+  <si>
+    <t>2019 Q2</t>
+  </si>
+  <si>
+    <t>2020 Q2</t>
+  </si>
+  <si>
+    <t>2010 Q3</t>
+  </si>
+  <si>
+    <t>2010 Q4</t>
+  </si>
+  <si>
+    <t>2011 Q3</t>
+  </si>
+  <si>
+    <t>2011 Q4</t>
+  </si>
+  <si>
+    <t>2012 Q3</t>
+  </si>
+  <si>
+    <t>2012 Q4</t>
+  </si>
+  <si>
+    <t>2013 Q3</t>
+  </si>
+  <si>
+    <t>2013 Q4</t>
+  </si>
+  <si>
+    <t>2014 Q3</t>
+  </si>
+  <si>
+    <t>2014 Q4</t>
+  </si>
+  <si>
+    <t>2015 Q3</t>
+  </si>
+  <si>
+    <t>2015 Q4</t>
+  </si>
+  <si>
+    <t>2016 Q3</t>
+  </si>
+  <si>
+    <t>2016 Q4</t>
+  </si>
+  <si>
+    <t>2017 Q3</t>
+  </si>
+  <si>
+    <t>2017 Q4</t>
+  </si>
+  <si>
+    <t>2018 Q3</t>
+  </si>
+  <si>
+    <t>2018 Q4</t>
+  </si>
+  <si>
+    <t>2019 Q3</t>
+  </si>
+  <si>
+    <t>2019 Q4</t>
+  </si>
+  <si>
+    <t>2020 Q3</t>
+  </si>
+  <si>
+    <t>2020 Q4</t>
+  </si>
+  <si>
+    <t>2021 Q2</t>
+  </si>
+  <si>
+    <t>2021 Q3</t>
+  </si>
+  <si>
+    <t>2021 Q4</t>
+  </si>
+  <si>
+    <t>2022 Q2</t>
+  </si>
+  <si>
+    <t>2022 Q3</t>
+  </si>
+  <si>
+    <t>2022 Q4</t>
+  </si>
+  <si>
+    <t>2023 Q2</t>
+  </si>
+  <si>
+    <t>2023 Q3</t>
+  </si>
+  <si>
+    <t>2023 Q4</t>
+  </si>
+  <si>
+    <t>2024 Q2</t>
+  </si>
+  <si>
+    <t>2024 Q3</t>
+  </si>
+  <si>
+    <t>2024 Q4</t>
+  </si>
+  <si>
+    <t>mediazona</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,6 +498,26 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,14 +540,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,17 +886,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBBF700-334B-3449-AFEE-827C65A3B6EE}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -695,7 +904,7 @@
       <c r="A2" s="1">
         <v>44593</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>497</v>
       </c>
     </row>
@@ -703,7 +912,7 @@
       <c r="A3" s="2">
         <v>44621</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2084</v>
       </c>
     </row>
@@ -711,7 +920,7 @@
       <c r="A4" s="2">
         <v>44652</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1168</v>
       </c>
     </row>
@@ -719,7 +928,7 @@
       <c r="A5" s="2">
         <v>44682</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1429</v>
       </c>
     </row>
@@ -727,7 +936,7 @@
       <c r="A6" s="2">
         <v>44713</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1105</v>
       </c>
     </row>
@@ -735,7 +944,7 @@
       <c r="A7" s="2">
         <v>44743</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>977</v>
       </c>
     </row>
@@ -743,7 +952,7 @@
       <c r="A8" s="2">
         <v>44774</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>996</v>
       </c>
     </row>
@@ -751,7 +960,7 @@
       <c r="A9" s="2">
         <v>44805</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1748</v>
       </c>
     </row>
@@ -759,7 +968,7 @@
       <c r="A10" s="2">
         <v>44835</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>2412</v>
       </c>
     </row>
@@ -767,7 +976,7 @@
       <c r="A11" s="2">
         <v>44866</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>2457</v>
       </c>
     </row>
@@ -775,7 +984,7 @@
       <c r="A12" s="2">
         <v>44896</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>3064</v>
       </c>
     </row>
@@ -783,7 +992,7 @@
       <c r="A13" s="2">
         <v>44927</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>4354</v>
       </c>
     </row>
@@ -791,15 +1000,15 @@
       <c r="A14" s="2">
         <v>44958</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>3858</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="8">
         <v>44986</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>3921</v>
       </c>
     </row>
@@ -807,7 +1016,7 @@
       <c r="A16" s="2">
         <v>45017</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>2456</v>
       </c>
     </row>
@@ -815,7 +1024,7 @@
       <c r="A17" s="2">
         <v>45047</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>2539</v>
       </c>
     </row>
@@ -823,7 +1032,7 @@
       <c r="A18" s="2">
         <v>45078</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>2717</v>
       </c>
     </row>
@@ -831,7 +1040,7 @@
       <c r="A19" s="2">
         <v>45108</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>2361</v>
       </c>
     </row>
@@ -839,7 +1048,7 @@
       <c r="A20" s="2">
         <v>45139</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>2077</v>
       </c>
     </row>
@@ -847,7 +1056,7 @@
       <c r="A21" s="2">
         <v>45170</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>1991</v>
       </c>
     </row>
@@ -855,7 +1064,7 @@
       <c r="A22" s="2">
         <v>45200</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>3391</v>
       </c>
     </row>
@@ -863,7 +1072,7 @@
       <c r="A23" s="2">
         <v>45231</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>3150</v>
       </c>
     </row>
@@ -871,7 +1080,7 @@
       <c r="A24" s="2">
         <v>45261</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>3455</v>
       </c>
     </row>
@@ -879,7 +1088,7 @@
       <c r="A25" s="2">
         <v>45292</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>3211</v>
       </c>
     </row>
@@ -887,7 +1096,7 @@
       <c r="A26" s="2">
         <v>45323</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>3574</v>
       </c>
     </row>
@@ -895,7 +1104,7 @@
       <c r="A27" s="2">
         <v>45352</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>3265</v>
       </c>
     </row>
@@ -903,7 +1112,7 @@
       <c r="A28" s="2">
         <v>45383</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>2906</v>
       </c>
     </row>
@@ -911,7 +1120,7 @@
       <c r="A29" s="2">
         <v>45413</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>3496</v>
       </c>
     </row>
@@ -919,7 +1128,7 @@
       <c r="A30" s="2">
         <v>45444</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>3013</v>
       </c>
     </row>
@@ -927,7 +1136,7 @@
       <c r="A31" s="2">
         <v>45474</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>3307</v>
       </c>
     </row>
@@ -935,7 +1144,7 @@
       <c r="A32" s="2">
         <v>45505</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>3422</v>
       </c>
     </row>
@@ -943,7 +1152,7 @@
       <c r="A33" s="2">
         <v>45536</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>3474</v>
       </c>
     </row>
@@ -951,7 +1160,7 @@
       <c r="A34" s="2">
         <v>45566</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>3692</v>
       </c>
     </row>
@@ -959,7 +1168,7 @@
       <c r="A35" s="2">
         <v>45597</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>3404</v>
       </c>
     </row>
@@ -967,7 +1176,7 @@
       <c r="A36" s="2">
         <v>45627</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>1848</v>
       </c>
     </row>
@@ -980,6 +1189,540 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A835A424-3281-FD42-B3E1-F5A2A2013082}">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50">
+        <f>AVERAGE(Monthly!B2:B3)</f>
+        <v>1290.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="7">
+        <f>AVERAGE(Monthly!B4:B6)</f>
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="7">
+        <f>AVERAGE(Monthly!B7:B9)</f>
+        <v>1240.3333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="7">
+        <f>AVERAGE(Monthly!B10:B12)</f>
+        <v>2644.3333333333335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="7">
+        <f>AVERAGE(Monthly!B13:B15)</f>
+        <v>4044.3333333333335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="7">
+        <f>AVERAGE(Monthly!B16:B18)</f>
+        <v>2570.6666666666665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="7">
+        <f>AVERAGE(Monthly!B19:B21)</f>
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="7">
+        <f>AVERAGE(Monthly!B22:B24)</f>
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="7">
+        <f>AVERAGE(Monthly!B25:B27)</f>
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="7">
+        <f>AVERAGE(Monthly!B28:B30)</f>
+        <v>3138.3333333333335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="7">
+        <f>AVERAGE(Monthly!B31:B33)</f>
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="7">
+        <f>AVERAGE(Monthly!B34:B36)</f>
+        <v>2981.3333333333335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873C0933-8FF5-C142-B89C-1B33F2DB0FE0}">
   <dimension ref="A1:CD4"/>
   <sheetViews>
@@ -990,250 +1733,250 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BY1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="3" t="s">
         <v>82</v>
       </c>
     </row>
